--- a/results/optimalRanking.xlsx
+++ b/results/optimalRanking.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="optimalRanking" localSheetId="0">Tabelle1!$A$1:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -946,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,12 +959,12 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>348.29434337702401</v>
       </c>
@@ -974,8 +974,20 @@
       <c r="C2">
         <v>53.5961065416924</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>_xlfn.T.TEST(A2:A11,A13:A22,2,3)</f>
+        <v>2.7709229277146538E-12</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:G2" si="0">_xlfn.T.TEST(B2:B11,B13:B22,2,3)</f>
+        <v>3.7824837731712926E-10</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.15110038620483529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>348.45039426435898</v>
       </c>
@@ -986,7 +998,7 @@
         <v>53.588687479747598</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>348.44536577525503</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>53.7354601374129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>348.518068037842</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>53.711954846641</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>348.00343173280299</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>53.499803076966003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>347.21942462474601</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>53.697817360054003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>349.16573808827201</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>53.964175117069097</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>348.11042097087301</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>54.019303970852498</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>348.235233645753</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>53.527572098598597</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>348.12485069472501</v>
       </c>
@@ -1074,12 +1086,12 @@
         <v>53.609394697958997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>342.99300785212398</v>
       </c>
@@ -1089,8 +1101,20 @@
       <c r="C13">
         <v>53.875812967412301</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>_xlfn.T.TEST(A13:A22,A24:A33,2,3)</f>
+        <v>2.3998487694338001E-8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="1">_xlfn.T.TEST(B13:B22,B24:B33,2,3)</f>
+        <v>1.290507415406976E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="2">_xlfn.T.TEST(C13:C22,C24:C33,2,3)</f>
+        <v>8.3790657417342432E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>342.33100510142799</v>
       </c>
@@ -1101,7 +1125,7 @@
         <v>53.920103412780797</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>342.006374089605</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>53.817075343445801</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>343.01497388472899</v>
       </c>
@@ -1123,7 +1147,7 @@
         <v>53.047605006373303</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>344.28582523582998</v>
       </c>
@@ -1134,7 +1158,7 @@
         <v>53.838047688437499</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>343.57155104498702</v>
       </c>
@@ -1145,7 +1169,7 @@
         <v>52.860861427931603</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>343.784027790366</v>
       </c>
@@ -1156,7 +1180,7 @@
         <v>53.919551065431698</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>343.83485894419499</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>53.417099218663402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>342.82893728700998</v>
       </c>
@@ -1178,7 +1202,7 @@
         <v>53.047944989630501</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>342.86879381575898</v>
       </c>
@@ -1189,12 +1213,12 @@
         <v>52.590216057215599</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>346.10032385042001</v>
       </c>
@@ -1204,8 +1228,20 @@
       <c r="C24">
         <v>54.671387709730503</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>_xlfn.T.TEST(A24:A33,A2:A11,2,3)</f>
+        <v>4.1683374093859221E-9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:G24" si="3">_xlfn.T.TEST(B24:B33,B2:B11,2,3)</f>
+        <v>8.9064217301074479E-9</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1.2324363219102204E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>346.18018316919398</v>
       </c>
@@ -1216,7 +1252,7 @@
         <v>54.532631148580101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>346.521077459541</v>
       </c>
@@ -1227,7 +1263,7 @@
         <v>54.275511741169701</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>346.669436100067</v>
       </c>
@@ -1238,7 +1274,7 @@
         <v>53.548256814358098</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>345.46901802879501</v>
       </c>
@@ -1249,7 +1285,7 @@
         <v>54.430946594698597</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>346.21151657479902</v>
       </c>
@@ -1260,7 +1296,7 @@
         <v>53.8455195028071</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>346.17976164387801</v>
       </c>
@@ -1271,7 +1307,7 @@
         <v>54.479038246711603</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>345.855580088848</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>54.613561989398903</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>345.81989644223302</v>
       </c>
